--- a/workbook2.xlsx
+++ b/workbook2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\ExcelFileCoparisionPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49F5CAF-2B78-4A67-81D3-9498E36B8282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885A811-C842-44C9-AAD9-215E797922C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMP" sheetId="1" r:id="rId1"/>
     <sheet name="DEPT" sheetId="2" r:id="rId2"/>
+    <sheet name="I to Have Extra" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -769,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F889AC-8542-4FB7-9BE6-9669F6F45BD6}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -822,4 +823,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4665121D-6E67-4591-8518-F5EFE6812642}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/workbook2.xlsx
+++ b/workbook2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\ExcelFileCoparisionPy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\ExcelFileComparisionPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885A811-C842-44C9-AAD9-215E797922C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB90680-EDAD-48DB-B4C8-1246690A0A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMP" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>EMPNO</t>
   </si>
@@ -117,13 +117,26 @@
   </si>
   <si>
     <t>ENGINERING</t>
+  </si>
+  <si>
+    <t>SHAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,14 +162,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,8 +472,8 @@
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,10 +519,11 @@
       <c r="E2" s="1">
         <v>29572</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>1800</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="4"/>
+      <c r="H2" s="2">
         <v>20</v>
       </c>
     </row>
@@ -518,13 +543,13 @@
       <c r="E3" s="1">
         <v>29637</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>1600</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>350</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>30</v>
       </c>
     </row>
@@ -544,13 +569,13 @@
       <c r="E4" s="1">
         <v>29639</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>1250</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>450</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>30</v>
       </c>
     </row>
@@ -570,10 +595,11 @@
       <c r="E5" s="1">
         <v>29678</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>2975</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="4"/>
+      <c r="H5" s="2">
         <v>20</v>
       </c>
     </row>
@@ -593,10 +619,11 @@
       <c r="E6" s="1">
         <v>29707</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>2850</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="4"/>
+      <c r="H6" s="2">
         <v>30</v>
       </c>
     </row>
@@ -616,10 +643,11 @@
       <c r="E7" s="1">
         <v>29746</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>2450</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="4"/>
+      <c r="H7" s="2">
         <v>10</v>
       </c>
     </row>
@@ -639,10 +667,11 @@
       <c r="E8" s="1">
         <v>31886</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>3000</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="4"/>
+      <c r="H8" s="2">
         <v>20</v>
       </c>
     </row>
@@ -659,10 +688,11 @@
       <c r="E9" s="1">
         <v>29907</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>5000</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="4"/>
+      <c r="H9" s="2">
         <v>10</v>
       </c>
     </row>
@@ -682,13 +712,13 @@
       <c r="E10" s="1">
         <v>29837</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>1500</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>50</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>30</v>
       </c>
     </row>
@@ -708,10 +738,11 @@
       <c r="E11" s="1">
         <v>31920</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>1100</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="4"/>
+      <c r="H11" s="2">
         <v>20</v>
       </c>
     </row>
@@ -731,10 +762,11 @@
       <c r="E12" s="1">
         <v>29923</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>950</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="4"/>
+      <c r="H12" s="2">
         <v>30</v>
       </c>
     </row>
@@ -754,10 +786,35 @@
       <c r="E13" s="1">
         <v>29974</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>1300</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="4"/>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>7936</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7839</v>
+      </c>
+      <c r="E14" s="3">
+        <v>29974</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1300.9654341</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="2">
         <v>10</v>
       </c>
     </row>
@@ -829,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4665121D-6E67-4591-8518-F5EFE6812642}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/workbook2.xlsx
+++ b/workbook2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\ExcelFileComparisionPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB90680-EDAD-48DB-B4C8-1246690A0A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A993AE-5D66-42A1-857D-8A371BA43DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>EMPNO</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>ENGINERING</t>
-  </si>
-  <si>
-    <t>SHAN</t>
   </si>
 </sst>
 </file>
@@ -462,7 +459,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,7 +544,7 @@
         <v>1600</v>
       </c>
       <c r="G3" s="4">
-        <v>350</v>
+        <v>349.89</v>
       </c>
       <c r="H3" s="2">
         <v>30</v>
@@ -573,7 +570,7 @@
         <v>1250</v>
       </c>
       <c r="G4" s="4">
-        <v>450</v>
+        <v>450.12</v>
       </c>
       <c r="H4" s="2">
         <v>30</v>
@@ -716,7 +713,7 @@
         <v>1500</v>
       </c>
       <c r="G10" s="4">
-        <v>50</v>
+        <v>50.25</v>
       </c>
       <c r="H10" s="2">
         <v>30</v>
@@ -795,28 +792,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>7936</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2">
-        <v>7839</v>
-      </c>
-      <c r="E14" s="3">
-        <v>29974</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1300.9654341</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="2">
-        <v>10</v>
-      </c>
+      <c r="H14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
